--- a/doc/国家名中英文对照.xlsx
+++ b/doc/国家名中英文对照.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\我的坚果云\WEBup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\WEBup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="国家" sheetId="1" r:id="rId1"/>
     <sheet name="常用国家" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="513">
   <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -673,10 +673,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>瓜德罗普岛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Guadeloupe</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -741,16 +737,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
-    <t>黑山共和国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Montenegro</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1022,10 +1008,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>留尼汪岛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Reunion</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1200,10 +1182,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>密克罗尼西亚联邦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Micronesia</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1216,10 +1194,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>摩尔多瓦共和国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Moldova</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1419,14 +1393,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>萨摩亚群岛(美国)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samoa(American)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>塞班岛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1670,14 +1636,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特克斯和凯科斯群岛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turks &amp; Caicos Island</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>特立尼达和多巴哥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1751,18 +1709,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>维尔京群岛(美国)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Virgin(U.S.)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维尔京群岛(英国)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Virgin(British)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1921,10 +1867,6 @@
   </si>
   <si>
     <t>Iraq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊朗伊斯兰共和国</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2050,6 +1992,74 @@
   <si>
     <t>法国</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks &amp; Caicos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊朗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨摩亚群岛(美属)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维尔京群岛(英属)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特克斯和凯科斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>留尼旺岛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安的列斯(荷属)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antilles(Netherlands)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密克罗尼西亚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意大利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维尔京群岛(美属)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa(American)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin(American)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜德罗普</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2251,23 +2261,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2303,23 +2296,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2474,16 +2450,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A45"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="5"/>
-    <col min="2" max="2" width="25.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="5"/>
+    <col min="1" max="1" width="8.75" style="5"/>
+    <col min="2" max="2" width="25.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3586,10 +3562,10 @@
         <v>142</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -3601,10 +3577,10 @@
         <v>142</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -3616,10 +3592,10 @@
         <v>142</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -3631,10 +3607,10 @@
         <v>142</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -3643,13 +3619,13 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -3658,13 +3634,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -3673,13 +3649,13 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -3688,13 +3664,13 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -3703,13 +3679,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>179</v>
+        <v>502</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>180</v>
+        <v>503</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -3718,13 +3694,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -3733,13 +3709,13 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -3748,13 +3724,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -3763,13 +3739,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -3778,13 +3754,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -3793,13 +3769,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -3808,13 +3784,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -3823,13 +3799,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -3838,13 +3814,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -3853,13 +3829,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -3868,13 +3844,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -3883,13 +3859,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -3898,13 +3874,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -3913,13 +3889,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -3928,13 +3904,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -3943,13 +3919,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -3958,13 +3934,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -3973,13 +3949,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -3988,13 +3964,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -4003,13 +3979,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -4018,13 +3994,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -4033,13 +4009,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -4048,13 +4024,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -4063,13 +4039,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -4078,13 +4054,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -4093,13 +4069,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -4108,13 +4084,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -4123,13 +4099,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -4138,13 +4114,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -4153,13 +4129,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -4168,13 +4144,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -4183,13 +4159,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -4198,13 +4174,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -4213,13 +4189,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>250</v>
+        <v>501</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -4228,13 +4204,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -4243,13 +4219,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -4258,13 +4234,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -4273,13 +4249,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -4288,13 +4264,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -4303,13 +4279,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="C122" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -4318,13 +4294,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -4333,13 +4309,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -4348,13 +4324,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -4363,13 +4339,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -4378,13 +4354,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -4393,13 +4369,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -4408,13 +4384,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -4423,13 +4399,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -4438,13 +4414,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -4453,13 +4429,13 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -4468,13 +4444,13 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -4483,13 +4459,13 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -4498,13 +4474,13 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -4513,13 +4489,13 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -4528,13 +4504,13 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -4543,13 +4519,13 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>295</v>
+        <v>505</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -4558,13 +4534,13 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -4573,13 +4549,13 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>299</v>
+        <v>506</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -4588,13 +4564,13 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -4603,13 +4579,13 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -4618,13 +4594,13 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -4633,13 +4609,13 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -4648,13 +4624,13 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -4663,13 +4639,13 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -4678,13 +4654,13 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -4693,13 +4669,13 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="C148" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -4708,13 +4684,13 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -4723,13 +4699,13 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -4738,13 +4714,13 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -4753,13 +4729,13 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -4768,13 +4744,13 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -4783,13 +4759,13 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -4798,13 +4774,13 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -4813,13 +4789,13 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -4828,13 +4804,13 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -4843,13 +4819,13 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -4858,13 +4834,13 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -4873,13 +4849,13 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -4888,13 +4864,13 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -4903,13 +4879,13 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -4918,13 +4894,13 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -4933,13 +4909,13 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>351</v>
+        <v>498</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>352</v>
+        <v>510</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -4948,13 +4924,13 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -4963,13 +4939,13 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="C166" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -4978,13 +4954,13 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -4993,13 +4969,13 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -5008,13 +4984,13 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -5023,13 +4999,13 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -5038,13 +5014,13 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -5053,13 +5029,13 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -5068,13 +5044,13 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -5083,13 +5059,13 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -5098,13 +5074,13 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -5113,13 +5089,13 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -5128,13 +5104,13 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -5143,13 +5119,13 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -5158,13 +5134,13 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -5173,13 +5149,13 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -5188,13 +5164,13 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -5203,13 +5179,13 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -5218,13 +5194,13 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -5233,13 +5209,13 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -5248,13 +5224,13 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -5263,13 +5239,13 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -5278,13 +5254,13 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -5293,13 +5269,13 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -5308,13 +5284,13 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -5323,13 +5299,13 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -5338,13 +5314,13 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -5353,13 +5329,13 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -5368,13 +5344,13 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="C193" s="3" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -5383,13 +5359,13 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -5398,13 +5374,13 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -5413,13 +5389,13 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -5428,13 +5404,13 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -5443,13 +5419,13 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -5458,13 +5434,13 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -5473,13 +5449,13 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -5488,13 +5464,13 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -5503,13 +5479,13 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -5518,13 +5494,13 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -5533,13 +5509,13 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -5548,13 +5524,13 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>436</v>
+        <v>511</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -5563,13 +5539,13 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -5578,13 +5554,13 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -5593,13 +5569,13 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -5608,13 +5584,13 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -5623,13 +5599,13 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -5638,13 +5614,13 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -5653,13 +5629,13 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -5668,13 +5644,13 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -5683,13 +5659,13 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -5698,13 +5674,13 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="1" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -5713,13 +5689,13 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -5728,13 +5704,13 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="1" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -5743,13 +5719,13 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="1" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -5758,13 +5734,13 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -5773,13 +5749,13 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="1" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -5788,13 +5764,13 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -5803,13 +5779,13 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -5818,13 +5794,13 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -5833,13 +5809,13 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -5848,13 +5824,13 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -5863,13 +5839,13 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -5878,13 +5854,13 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -5893,13 +5869,13 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="C228" s="3" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -5908,13 +5884,13 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -5923,13 +5899,13 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -5938,13 +5914,13 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -5953,13 +5929,13 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -5968,13 +5944,13 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -5983,13 +5959,13 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -5998,13 +5974,13 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -6013,13 +5989,13 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -6028,13 +6004,13 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -6043,13 +6019,13 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -6058,13 +6034,13 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -6080,17 +6056,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>37</v>
@@ -6098,7 +6078,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>105</v>
@@ -6106,30 +6086,39 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>452</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>